--- a/Datos_Salones.xlsx
+++ b/Datos_Salones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CarlosBeltran/Documents/TEC/Octavo Semestre/Taller de investigacion II/itc_face_recognition/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0FE1574-294E-E240-8599-4EDE97D5513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FBD856-816C-2E43-9725-A1BB512F7749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6160" yWindow="3060" windowWidth="28040" windowHeight="17440" xr2:uid="{1725A042-B8F9-4A43-ADEE-C0D28F9BE2BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>subject</t>
   </si>
@@ -56,26 +56,66 @@
     <t>EC05</t>
   </si>
   <si>
-    <t>Carlos Daniel Beltran Medina</t>
-  </si>
-  <si>
-    <t>Payasos</t>
-  </si>
-  <si>
     <t>CCDS</t>
   </si>
   <si>
-    <t>Jesus Manuel Berrelleza Aleman</t>
+    <t>Administracion de Redes</t>
+  </si>
+  <si>
+    <t>Edgar Cervantes Lopez</t>
+  </si>
+  <si>
+    <t>Zuriel Dathan Mora Felix</t>
+  </si>
+  <si>
+    <t>Taller de Investigacion II</t>
+  </si>
+  <si>
+    <t>EC04</t>
+  </si>
+  <si>
+    <t>Maria Aracely Martinez Amaya</t>
+  </si>
+  <si>
+    <t>Lenguajes y Automatas II</t>
+  </si>
+  <si>
+    <t>EB04</t>
+  </si>
+  <si>
+    <t>Rosalio Zatarain Cabada</t>
+  </si>
+  <si>
+    <t>Metodos Agiles</t>
+  </si>
+  <si>
+    <t>EB06</t>
+  </si>
+  <si>
+    <t>Martha Estela Valenzuela Tirado</t>
+  </si>
+  <si>
+    <t>Sistemas Programables</t>
+  </si>
+  <si>
+    <t>Juan Zambada Tinoco</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,17 +479,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{067FE11E-DF31-674A-B058-10CB16BE7664}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -473,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1">
         <v>0.375</v>
@@ -484,13 +525,69 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>
